--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7828F3-E644-416A-972B-6EA3FBD28D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{045F0746-9313-4516-8234-06B650D529D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
     <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
+    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
+    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="112">
   <si>
     <t>UC_N</t>
   </si>
@@ -76,24 +78,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>daynight</t>
-  </si>
-  <si>
-    <t>TimeSlices</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
-  </si>
-  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -293,13 +277,117 @@
   </si>
   <si>
     <t>~TimeSlices</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>FaD</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>elc_spv-DEU</t>
+  </si>
+  <si>
+    <t>FaN</t>
+  </si>
+  <si>
+    <t>FaP</t>
+  </si>
+  <si>
+    <t>RaD</t>
+  </si>
+  <si>
+    <t>RaN</t>
+  </si>
+  <si>
+    <t>RaP</t>
+  </si>
+  <si>
+    <t>SaD</t>
+  </si>
+  <si>
+    <t>SaN</t>
+  </si>
+  <si>
+    <t>SaP</t>
+  </si>
+  <si>
+    <t>WaD</t>
+  </si>
+  <si>
+    <t>WaN</t>
+  </si>
+  <si>
+    <t>WaP</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
+  <si>
+    <t>elc_won-DEU</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>FaD,SaD,FaP,SaP,RaD,WaD,RaP,WaP</t>
+  </si>
+  <si>
+    <t>RaP,FaP,SaP,WaP,SaN,WaN,FaN,RaN</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,8 +441,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +492,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -419,6 +552,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -430,7 +593,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -446,6 +609,24 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -468,6 +649,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C871B188-AB68-ED83-0DB5-B0286F76AE01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -785,7 +1021,7 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
@@ -806,7 +1042,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -821,7 +1057,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -829,21 +1065,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
+        <v>RaP,FaP,SaP,WaP,SaN,WaN,FaN,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -861,21 +1097,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
+        <v>FaD,SaD,FaP,SaP,RaD,WaD,RaP,WaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -887,26 +1123,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -934,551 +1170,551 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1488,77 +1724,1253 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D463D7A-B316-477E-93F4-C2076F7B9F44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A745744-DD3E-4909-86DE-FB7F5B09CC3F}">
   <dimension ref="B2:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E1979D-88A7-4985-9AA7-8467E713647C}">
+  <dimension ref="A1:R22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="10.59765625" customWidth="1"/>
+    <col min="18" max="18" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M2" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="M3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="M4" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="24">
+        <v>0.2627473745316376</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="M5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="26">
+        <v>0.32525199218956147</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="M6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="24">
+        <v>0.34545358594121062</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="M7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="26">
+        <v>0.26654704733759038</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.16500571071832595</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0.12302736357152495</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="19">
+        <v>572.68765233668205</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="16">
+        <v>2.2477563802083164E-4</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0.12827553568303074</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="20">
+        <v>600.7231874066448</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="14">
+        <v>8.6502665801810735E-3</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="17">
+        <v>2.2741229790278754E-2</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="19">
+        <v>107.89693801457399</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.27593004477523009</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0.10649235142275328</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="20">
+        <v>503.07572868459232</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="14">
+        <v>4.8536203197970815E-3</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0.11496552442089168</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="19">
+        <v>529.22706241631136</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="16">
+        <v>2.4738578932481298E-2</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1.973501635693993E-2</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="20">
+        <v>95.582697027273682</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B17" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.35565985375654913</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="17">
+        <v>7.86665054129803E-2</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="19">
+        <v>451.41863633032068</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B18" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="16">
+        <v>1.8191854302516255E-2</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="18">
+        <v>8.3545599227963188E-2</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="20">
+        <v>437.81745490455114</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="14">
+        <v>4.1321901971877829E-2</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="17">
+        <v>1.4499645094670378E-2</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" s="19">
+        <v>84.085942814069725</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.10349109933797937</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0.14078983347474563</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" s="20">
+        <v>627.98575968512273</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="17">
+        <v>0.14141007471312952</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" s="19">
+        <v>627.45488424533426</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B22" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1.9322936668730696E-3</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="18">
+        <v>2.5851320830878426E-2</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" s="20">
+        <v>117.55948257540084</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1AC88D-25C1-4B9E-AA5A-5ED1CAFB15DE}">
+  <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="M3" t="s">
         <v>82</v>
       </c>
+      <c r="N3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>0.11426940639269406</v>
+      </c>
+      <c r="C4">
+        <v>0.16087081189037786</v>
+      </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" t="s">
         <v>83</v>
       </c>
-      <c r="F4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>30</v>
+      <c r="J4">
+        <v>0.12154185877629864</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4">
+        <v>0.17884372713897179</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>0.11426940639269406</v>
+      </c>
+      <c r="C5">
+        <v>5.2547713165767528E-2</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5">
+        <v>8.8527190099622954E-2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5">
+        <v>0.36727282398527206</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>2.0776255707762557E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.5896543437005365E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>27</v>
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6">
+        <v>2.2637574024520383E-2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6">
+        <v>0.16609836701710967</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C7">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7">
+        <v>0.13551107552473518</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7">
+        <v>0.22024800426650004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C8">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8">
+        <v>0.10048263795391252</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8">
+        <v>0.41879867138276894</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9">
+        <v>2.5034684908137404E-2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9">
+        <v>0.21176347115901417</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C10">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10">
+        <v>0.11376739849528658</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10">
+        <v>0.11652662920397838</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C11">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11">
+        <v>8.1319196279968115E-2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11">
+        <v>0.26664324648860149</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="C12">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12">
+        <v>2.0819513785419224E-2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12">
+        <v>8.2939888326658107E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="C13">
+        <v>0.15910300077070333</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13">
+        <v>0.15008049673136389</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13">
+        <v>0.13042023902363176</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="C14">
+        <v>5.197026576834151E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14">
+        <v>0.11194412076470171</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" t="s">
+        <v>95</v>
+      </c>
+      <c r="O14">
+        <v>0.32342907502345386</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="C15">
+        <v>3.5502075926708607E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15">
+        <v>2.8334252656033367E-2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>96</v>
+      </c>
+      <c r="O15">
+        <v>0.10802714049505879</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16">
+        <v>0.11506316199164349</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17">
+        <v>0.11321189286390412</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18">
+        <v>2.0950801910466603E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19">
+        <v>0.11643727462754408</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20">
+        <v>0.11447308514247369</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21">
+        <v>2.119263617281722E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22">
+        <v>0.11626660111669057</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23">
+        <v>0.11444709610816986</v>
+      </c>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24">
+        <v>2.1146925800818128E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25">
+        <v>0.11407471408982019</v>
+      </c>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26">
+        <v>0.11193624963444851</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H27" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27">
+        <v>2.0799560541203545E-2</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{045F0746-9313-4516-8234-06B650D529D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29DD66FC-AC79-4DB2-A951-85002A808C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -351,10 +351,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaD,SaD,FaP,SaP,RaD,WaD,RaP,WaP</t>
-  </si>
-  <si>
-    <t>RaP,FaP,SaP,WaP,SaN,WaN,FaN,RaN</t>
+    <t>FaP,SaP,FaD,RaP,SaD,WaD,WaP,RaD</t>
+  </si>
+  <si>
+    <t>FaN,RaP,FaP,SaP,RaN,WaP,SaN,WaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -662,7 +662,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>296863</xdr:colOff>
+      <xdr:colOff>296862</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
@@ -671,7 +671,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C871B188-AB68-ED83-0DB5-B0286F76AE01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C30ED57-977C-5BBE-11FF-1EE0AB4AF48C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaP,FaP,SaP,WaP,SaN,WaN,FaN,RaN</v>
+        <v>FaN,RaP,FaP,SaP,RaN,WaP,SaN,WaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaD,SaD,FaP,SaP,RaD,WaD,RaP,WaP</v>
+        <v>FaP,SaP,FaD,RaP,SaD,WaD,WaP,RaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1724,7 +1724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A745744-DD3E-4909-86DE-FB7F5B09CC3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C5D0A8-9E45-4D10-9024-9CA887EA02A3}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1803,8 +1803,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E1979D-88A7-4985-9AA7-8467E713647C}">
-  <dimension ref="A1:R22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD67B95-4118-45AE-9975-9633CD87D2F7}">
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -1814,13 +1814,14 @@
   <cols>
     <col min="2" max="4" width="10.59765625" customWidth="1"/>
     <col min="5" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="10.59765625" customWidth="1"/>
-    <col min="18" max="18" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.59765625" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.59765625" customWidth="1"/>
+    <col min="15" max="15" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21" t="s">
         <v>97</v>
       </c>
@@ -1832,78 +1833,21 @@
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
     </row>
-    <row r="2" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="M2" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="M3" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="M4" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="24">
-        <v>0.2627473745316376</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="M5" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="26">
-        <v>0.32525199218956147</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="M6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="24">
-        <v>0.34545358594121062</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="M7" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="26">
-        <v>0.26654704733759038</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q9" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="12" t="s">
         <v>69</v>
       </c>
@@ -1916,32 +1860,41 @@
       <c r="E10" s="12" t="s">
         <v>82</v>
       </c>
+      <c r="G10" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="H10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="M10" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="N10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="O10" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="Q10" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="R10" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B11" s="13" t="s">
         <v>83</v>
       </c>
@@ -1954,32 +1907,41 @@
       <c r="E11" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="17">
+      <c r="H11" s="17">
         <v>0.12302736357152495</v>
       </c>
+      <c r="I11" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="J11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="13" t="s">
         <v>98</v>
       </c>
+      <c r="L11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="19">
+        <v>572.68765233668205</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="O11" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="P11" s="19">
-        <v>572.68765233668205</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="R11" s="13" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Q11" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="24">
+        <v>0.26654704733759027</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B12" s="15" t="s">
         <v>86</v>
       </c>
@@ -1992,32 +1954,41 @@
       <c r="E12" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="18">
+      <c r="H12" s="18">
         <v>0.12827553568303074</v>
       </c>
+      <c r="I12" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="J12" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="15" t="s">
         <v>98</v>
       </c>
+      <c r="L12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="20">
+        <v>600.7231874066448</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="O12" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="P12" s="20">
-        <v>600.7231874066448</v>
-      </c>
-      <c r="Q12" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="R12" s="15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Q12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="26">
+        <v>0.34545358594121056</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B13" s="13" t="s">
         <v>87</v>
       </c>
@@ -2030,32 +2001,41 @@
       <c r="E13" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="G13" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="17">
+      <c r="H13" s="17">
         <v>2.2741229790278754E-2</v>
       </c>
+      <c r="I13" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="J13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="13" t="s">
         <v>98</v>
       </c>
+      <c r="L13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="19">
+        <v>107.89693801457399</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="O13" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="P13" s="19">
-        <v>107.89693801457399</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="R13" s="13" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Q13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="24">
+        <v>0.32525199218956141</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B14" s="15" t="s">
         <v>88</v>
       </c>
@@ -2068,32 +2048,41 @@
       <c r="E14" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="18">
+      <c r="H14" s="18">
         <v>0.10649235142275328</v>
       </c>
+      <c r="I14" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="J14" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="15" t="s">
         <v>98</v>
       </c>
+      <c r="L14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="20">
+        <v>503.07572868459232</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="O14" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="P14" s="20">
-        <v>503.07572868459232</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="R14" s="15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Q14" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" s="26">
+        <v>0.26274737453163743</v>
+      </c>
+      <c r="S14" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B15" s="13" t="s">
         <v>89</v>
       </c>
@@ -2106,32 +2095,32 @@
       <c r="E15" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="G15" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="17">
+      <c r="H15" s="17">
         <v>0.11496552442089168</v>
       </c>
+      <c r="I15" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="J15" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" s="13" t="s">
         <v>98</v>
       </c>
+      <c r="L15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="19">
+        <v>529.22706241631136</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="O15" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="P15" s="19">
-        <v>529.22706241631136</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="R15" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B16" s="15" t="s">
         <v>90</v>
       </c>
@@ -2144,32 +2133,32 @@
       <c r="E16" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="G16" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="18">
+      <c r="H16" s="18">
         <v>1.973501635693993E-2</v>
       </c>
+      <c r="I16" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="J16" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="15" t="s">
         <v>98</v>
       </c>
+      <c r="L16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="20">
+        <v>95.582697027273682</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="O16" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" s="20">
-        <v>95.582697027273682</v>
-      </c>
-      <c r="Q16" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="R16" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17" s="13" t="s">
         <v>91</v>
       </c>
@@ -2182,32 +2171,32 @@
       <c r="E17" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="G17" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="17">
+      <c r="H17" s="17">
         <v>7.86665054129803E-2</v>
       </c>
+      <c r="I17" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="J17" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="13" t="s">
         <v>98</v>
       </c>
+      <c r="L17" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="19">
+        <v>451.41863633032068</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="O17" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="19">
-        <v>451.41863633032068</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="R17" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" s="15" t="s">
         <v>92</v>
       </c>
@@ -2220,32 +2209,32 @@
       <c r="E18" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="G18" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="18">
+      <c r="H18" s="18">
         <v>8.3545599227963188E-2</v>
       </c>
+      <c r="I18" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="J18" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="15" t="s">
         <v>98</v>
       </c>
+      <c r="L18" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" s="20">
+        <v>437.81745490455114</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="O18" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="P18" s="20">
-        <v>437.81745490455114</v>
-      </c>
-      <c r="Q18" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="R18" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19" s="13" t="s">
         <v>93</v>
       </c>
@@ -2258,32 +2247,32 @@
       <c r="E19" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="G19" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="17">
+      <c r="H19" s="17">
         <v>1.4499645094670378E-2</v>
       </c>
+      <c r="I19" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="J19" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" s="13" t="s">
         <v>98</v>
       </c>
+      <c r="L19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="19">
+        <v>84.085942814069725</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="O19" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="P19" s="19">
-        <v>84.085942814069725</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="R19" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20" s="15" t="s">
         <v>94</v>
       </c>
@@ -2296,32 +2285,32 @@
       <c r="E20" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="G20" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="18">
+      <c r="H20" s="18">
         <v>0.14078983347474563</v>
       </c>
+      <c r="I20" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="J20" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20" s="15" t="s">
         <v>98</v>
       </c>
+      <c r="L20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="20">
+        <v>627.98575968512273</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="O20" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="P20" s="20">
-        <v>627.98575968512273</v>
-      </c>
-      <c r="Q20" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="R20" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B21" s="13" t="s">
         <v>95</v>
       </c>
@@ -2334,32 +2323,32 @@
       <c r="E21" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="G21" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I21" s="17">
+      <c r="H21" s="17">
         <v>0.14141007471312952</v>
       </c>
+      <c r="I21" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="J21" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" s="13" t="s">
         <v>98</v>
       </c>
+      <c r="L21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21" s="19">
+        <v>627.45488424533426</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="O21" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="P21" s="19">
-        <v>627.45488424533426</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="R21" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B22" s="15" t="s">
         <v>96</v>
       </c>
@@ -2372,28 +2361,28 @@
       <c r="E22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="G22" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="18">
+      <c r="H22" s="18">
         <v>2.5851320830878426E-2</v>
       </c>
+      <c r="I22" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="J22" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K22" s="15" t="s">
         <v>98</v>
       </c>
+      <c r="L22" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" s="20">
+        <v>117.55948257540084</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="O22" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="P22" s="20">
-        <v>117.55948257540084</v>
-      </c>
-      <c r="Q22" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="R22" s="15" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2407,7 +2396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1AC88D-25C1-4B9E-AA5A-5ED1CAFB15DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF8BE4B-E15A-45DD-B8B6-B1262BB2BD59}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29DD66FC-AC79-4DB2-A951-85002A808C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3CDE0B5-9BCC-477A-8FD2-6520D8AC45EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -351,10 +351,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaP,SaP,FaD,RaP,SaD,WaD,WaP,RaD</t>
-  </si>
-  <si>
-    <t>FaN,RaP,FaP,SaP,RaN,WaP,SaN,WaN</t>
+    <t>SaD,WaP,FaD,RaP,RaD,WaD,FaP,SaP</t>
+  </si>
+  <si>
+    <t>FaP,SaP,RaN,RaP,FaN,SaN,WaN,WaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -671,7 +671,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C30ED57-977C-5BBE-11FF-1EE0AB4AF48C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{233199AF-D0E1-CCAA-B0DA-A8708FFBDAD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaN,RaP,FaP,SaP,RaN,WaP,SaN,WaN</v>
+        <v>FaP,SaP,RaN,RaP,FaN,SaN,WaN,WaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaP,SaP,FaD,RaP,SaD,WaD,WaP,RaD</v>
+        <v>SaD,WaP,FaD,RaP,RaD,WaD,FaP,SaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1724,7 +1724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C5D0A8-9E45-4D10-9024-9CA887EA02A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D701EA4-78E1-43FF-B5D3-3DDE2A6CD275}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1803,7 +1803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD67B95-4118-45AE-9975-9633CD87D2F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C076EA-71BE-485E-A4F3-C9C49B1BBE1A}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1935,7 +1935,7 @@
         <v>21</v>
       </c>
       <c r="R11" s="24">
-        <v>0.26654704733759027</v>
+        <v>0.26654704733759038</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>111</v>
@@ -1982,7 +1982,7 @@
         <v>28</v>
       </c>
       <c r="R12" s="26">
-        <v>0.34545358594121056</v>
+        <v>0.34545358594121062</v>
       </c>
       <c r="S12" s="25" t="s">
         <v>111</v>
@@ -2026,10 +2026,10 @@
         <v>99</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="R13" s="24">
-        <v>0.32525199218956141</v>
+        <v>0.26274737453163755</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>111</v>
@@ -2073,10 +2073,10 @@
         <v>99</v>
       </c>
       <c r="Q14" s="25" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="R14" s="26">
-        <v>0.26274737453163743</v>
+        <v>0.32525199218956147</v>
       </c>
       <c r="S14" s="25" t="s">
         <v>111</v>
@@ -2396,7 +2396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF8BE4B-E15A-45DD-B8B6-B1262BB2BD59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C012EE-6272-49DB-9D59-D944E7AEA2F2}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3CDE0B5-9BCC-477A-8FD2-6520D8AC45EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F308263-5389-48FF-8D12-4A67F13AFACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -351,10 +351,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>SaD,WaP,FaD,RaP,RaD,WaD,FaP,SaP</t>
-  </si>
-  <si>
-    <t>FaP,SaP,RaN,RaP,FaN,SaN,WaN,WaP</t>
+    <t>WaP,SaD,FaP,SaP,RaD,WaD,RaP,FaD</t>
+  </si>
+  <si>
+    <t>WaP,RaN,FaP,SaP,FaN,SaN,WaN,RaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -671,7 +671,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{233199AF-D0E1-CCAA-B0DA-A8708FFBDAD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82C4873E-FE8D-8B3A-1C8F-E46FCE932BAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaP,SaP,RaN,RaP,FaN,SaN,WaN,WaP</v>
+        <v>WaP,RaN,FaP,SaP,FaN,SaN,WaN,RaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>SaD,WaP,FaD,RaP,RaD,WaD,FaP,SaP</v>
+        <v>WaP,SaD,FaP,SaP,RaD,WaD,RaP,FaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1724,7 +1724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D701EA4-78E1-43FF-B5D3-3DDE2A6CD275}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BF2055-19A7-400A-98B9-E8963CC76EF9}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1803,7 +1803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C076EA-71BE-485E-A4F3-C9C49B1BBE1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475ACF26-9272-4E1C-8E76-2B2E4E5DD028}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1932,10 +1932,10 @@
         <v>99</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R11" s="24">
-        <v>0.26654704733759038</v>
+        <v>0.32525199218956147</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>111</v>
@@ -1982,7 +1982,7 @@
         <v>28</v>
       </c>
       <c r="R12" s="26">
-        <v>0.34545358594121062</v>
+        <v>0.34545358594121056</v>
       </c>
       <c r="S12" s="25" t="s">
         <v>111</v>
@@ -2029,7 +2029,7 @@
         <v>75</v>
       </c>
       <c r="R13" s="24">
-        <v>0.26274737453163755</v>
+        <v>0.26274737453163749</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>111</v>
@@ -2073,10 +2073,10 @@
         <v>99</v>
       </c>
       <c r="Q14" s="25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R14" s="26">
-        <v>0.32525199218956147</v>
+        <v>0.26654704733759033</v>
       </c>
       <c r="S14" s="25" t="s">
         <v>111</v>
@@ -2396,7 +2396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C012EE-6272-49DB-9D59-D944E7AEA2F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EF5168-C295-4460-B9C6-3B57BC6FB571}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F308263-5389-48FF-8D12-4A67F13AFACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03495A5B-99AA-440E-9AA8-1DDAC67C165D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -351,10 +351,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaP,SaD,FaP,SaP,RaD,WaD,RaP,FaD</t>
-  </si>
-  <si>
-    <t>WaP,RaN,FaP,SaP,FaN,SaN,WaN,RaP</t>
+    <t>WaD,WaP,RaP,RaD,FaD,SaD,FaP,SaP</t>
+  </si>
+  <si>
+    <t>RaN,RaP,SaN,WaN,FaN,FaP,SaP,WaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -382,10 +382,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -593,7 +592,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -617,8 +616,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -671,7 +668,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82C4873E-FE8D-8B3A-1C8F-E46FCE932BAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C02D795-38F3-4A18-9E04-7C9D77F669AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1079,7 +1076,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>WaP,RaN,FaP,SaP,FaN,SaN,WaN,RaP</v>
+        <v>RaN,RaP,SaN,WaN,FaN,FaP,SaP,WaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1111,7 +1108,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>WaP,SaD,FaP,SaP,RaD,WaD,RaP,FaD</v>
+        <v>WaD,WaP,RaP,RaD,FaD,SaD,FaP,SaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1724,7 +1721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BF2055-19A7-400A-98B9-E8963CC76EF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D6FF53-DF96-4D99-8F0B-B040E60B942A}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1803,7 +1800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475ACF26-9272-4E1C-8E76-2B2E4E5DD028}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A76C6D6-A519-4C65-B823-D0EF4D3CD666}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1822,16 +1819,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="11" t="s">
@@ -1884,13 +1881,13 @@
       <c r="O10" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="Q10" s="22" t="s">
+      <c r="Q10" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="22" t="s">
+      <c r="R10" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="S10" s="22" t="s">
+      <c r="S10" s="20" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1922,8 +1919,8 @@
       <c r="L11" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="19">
-        <v>572.68765233668205</v>
+      <c r="M11" s="17">
+        <v>0.12107453114731588</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>84</v>
@@ -1931,13 +1928,13 @@
       <c r="O11" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="Q11" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" s="24">
-        <v>0.32525199218956147</v>
-      </c>
-      <c r="S11" s="23" t="s">
+      <c r="Q11" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="22">
+        <v>0.26274737453163755</v>
+      </c>
+      <c r="S11" s="21" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1969,8 +1966,8 @@
       <c r="L12" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="M12" s="20">
-        <v>600.7231874066448</v>
+      <c r="M12" s="18">
+        <v>0.12678582219482643</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>84</v>
@@ -1978,13 +1975,13 @@
       <c r="O12" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="Q12" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="26">
-        <v>0.34545358594121056</v>
-      </c>
-      <c r="S12" s="25" t="s">
+      <c r="Q12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="24">
+        <v>0.26654704733759038</v>
+      </c>
+      <c r="S12" s="23" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2016,8 +2013,8 @@
       <c r="L13" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="19">
-        <v>107.89693801457399</v>
+      <c r="M13" s="17">
+        <v>2.2774452371612731E-2</v>
       </c>
       <c r="N13" s="13" t="s">
         <v>84</v>
@@ -2025,13 +2022,13 @@
       <c r="O13" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="Q13" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="R13" s="24">
-        <v>0.26274737453163749</v>
-      </c>
-      <c r="S13" s="23" t="s">
+      <c r="Q13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="22">
+        <v>0.32525199218956147</v>
+      </c>
+      <c r="S13" s="21" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2063,8 +2060,8 @@
       <c r="L14" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="20">
-        <v>503.07572868459232</v>
+      <c r="M14" s="18">
+        <v>0.10486374242083417</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>84</v>
@@ -2072,13 +2069,13 @@
       <c r="O14" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="Q14" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="R14" s="26">
-        <v>0.26654704733759033</v>
-      </c>
-      <c r="S14" s="25" t="s">
+      <c r="Q14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="24">
+        <v>0.34545358594121056</v>
+      </c>
+      <c r="S14" s="23" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2110,8 +2107,8 @@
       <c r="L15" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="M15" s="19">
-        <v>529.22706241631136</v>
+      <c r="M15" s="17">
+        <v>0.11072416045522991</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>84</v>
@@ -2148,8 +2145,8 @@
       <c r="L16" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="20">
-        <v>95.582697027273682</v>
+      <c r="M16" s="18">
+        <v>1.9934541574870939E-2</v>
       </c>
       <c r="N16" s="15" t="s">
         <v>84</v>
@@ -2186,8 +2183,8 @@
       <c r="L17" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="M17" s="19">
-        <v>451.41863633032068</v>
+      <c r="M17" s="17">
+        <v>9.3129967618712603E-2</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>84</v>
@@ -2224,8 +2221,8 @@
       <c r="L18" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="M18" s="20">
-        <v>437.81745490455114</v>
+      <c r="M18" s="18">
+        <v>9.0370880103560175E-2</v>
       </c>
       <c r="N18" s="15" t="s">
         <v>84</v>
@@ -2262,8 +2259,8 @@
       <c r="L19" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="M19" s="19">
-        <v>84.085942814069725</v>
+      <c r="M19" s="17">
+        <v>1.7262951785953353E-2</v>
       </c>
       <c r="N19" s="13" t="s">
         <v>84</v>
@@ -2300,8 +2297,8 @@
       <c r="L20" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="20">
-        <v>627.98575968512273</v>
+      <c r="M20" s="18">
+        <v>0.13393932092465469</v>
       </c>
       <c r="N20" s="15" t="s">
         <v>84</v>
@@ -2338,8 +2335,8 @@
       <c r="L21" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="M21" s="19">
-        <v>627.45488424533426</v>
+      <c r="M21" s="17">
+        <v>0.13408115812593691</v>
       </c>
       <c r="N21" s="13" t="s">
         <v>84</v>
@@ -2376,8 +2373,8 @@
       <c r="L22" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="M22" s="20">
-        <v>117.55948257540084</v>
+      <c r="M22" s="18">
+        <v>2.5058471276257276E-2</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>84</v>
@@ -2396,7 +2393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EF5168-C295-4460-B9C6-3B57BC6FB571}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A784CC-AD48-4D00-AA1D-B15A2944CD4F}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67454B3E-4F14-4CD0-BD22-E1839FBAD783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5F52014-7DB4-46F9-ACDA-02E696372904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="111">
   <si>
     <t>UC_N</t>
   </si>
@@ -279,9 +279,6 @@
     <t>W,R,S,F</t>
   </si>
   <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
-  </si>
-  <si>
     <t>~TFM_DINS-AT</t>
   </si>
   <si>
@@ -351,10 +348,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaP,SaP,RaD,WaD,FaD,RaP,SaD,WaP</t>
-  </si>
-  <si>
-    <t>FaN,WaP,RaP,SaN,WaN,FaP,SaP,RaN</t>
+    <t>FaP,SaP,SaD,RaD,RaP,FaD,WaD,WaP</t>
+  </si>
+  <si>
+    <t>WaP,FaP,SaP,SaN,WaN,RaP,FaN,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -382,11 +379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,35 +433,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="7"/>
-      <color rgb="FF969696"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,26 +457,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF19375F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -551,36 +499,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -592,7 +510,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -608,22 +526,6 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -646,171 +548,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47F075B-8557-B926-8B71-FA3F38F484BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>296862</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE05300-7BD3-7F02-1E1C-18C53AC5D51A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>296863</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949412F1-E1D7-75B6-86AD-0C9DC7C82B6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1186,7 +923,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaN,WaP,RaP,SaN,WaN,FaP,SaP,RaN</v>
+        <v>WaP,FaP,SaP,SaN,WaN,RaP,FaN,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1218,7 +955,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaP,SaP,RaD,WaD,FaD,RaP,SaD,WaP</v>
+        <v>FaP,SaP,SaD,RaD,RaP,FaD,WaD,WaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1230,7 +967,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -1241,7 +978,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
@@ -1249,7 +986,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1831,1300 +1568,1218 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E6E239-8D30-43B3-BD17-C404608BD77A}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF6088B-B734-423B-B857-2C3F44D0709E}">
+  <dimension ref="B9:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="6" width="10.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
+      <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
+      <c r="F12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
+      <c r="F13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45CB270-F60A-4E9C-A01E-F3D9641D5E15}">
-  <dimension ref="A1:S22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A9AA89-C878-49D8-B97D-A1CE6F384F4A}">
+  <dimension ref="B9:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.59765625" customWidth="1"/>
-    <col min="17" max="19" width="10.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="11" t="s">
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" t="s">
         <v>80</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="M10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="S10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="12" t="s">
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <v>0.16500571071832595</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11">
+        <v>0.12302736357152495</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11">
+        <v>0.12107453114731588</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11">
+        <v>0.34545358594121056</v>
+      </c>
+      <c r="S11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="12" t="s">
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12">
+        <v>2.2477563802083164E-4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12">
+        <v>0.12827553568303074</v>
+      </c>
+      <c r="J12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12">
+        <v>0.12678582219482643</v>
+      </c>
+      <c r="O12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12">
+        <v>0.32525199218956147</v>
+      </c>
+      <c r="S12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="Q10" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="S10" s="20" t="s">
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13">
+        <v>8.6502665801810735E-3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13">
+        <v>2.2741229790278754E-2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13">
+        <v>2.2774452371612731E-2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13">
+        <v>0.26274737453163755</v>
+      </c>
+      <c r="S13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0.16500571071832595</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="13" t="s">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14">
+        <v>0.27593004477523009</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14">
+        <v>0.10649235142275328</v>
+      </c>
+      <c r="J14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0.12302736357152495</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="N11" s="17">
-        <v>0.12107453114731588</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" s="22">
-        <v>0.34545358594121056</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B12" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="16">
-        <v>2.2477563802083164E-4</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="M14" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14">
+        <v>0.10486374242083417</v>
+      </c>
+      <c r="O14" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14">
+        <v>0.26654704733759038</v>
+      </c>
+      <c r="S14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <v>4.8536203197970815E-3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15">
+        <v>0.11496552442089168</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="18">
-        <v>0.12827553568303074</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="N12" s="18">
-        <v>0.12678582219482643</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="R12" s="24">
-        <v>0.26274737453163749</v>
-      </c>
-      <c r="S12" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="15">
-        <v>8.6502665801810735E-3</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="M15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15">
+        <v>0.11072416045522991</v>
+      </c>
+      <c r="O15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <v>2.4738578932481298E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16">
+        <v>1.973501635693993E-2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="17">
-        <v>2.2741229790278754E-2</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="N13" s="17">
-        <v>2.2774452371612731E-2</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" s="22">
-        <v>0.26654704733759033</v>
-      </c>
-      <c r="S13" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B14" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0.27593004477523009</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="14" t="s">
+      <c r="M16" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16">
+        <v>1.9934541574870939E-2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17">
+        <v>0.35565985375654913</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17">
+        <v>7.86665054129803E-2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0.10649235142275328</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="N14" s="18">
-        <v>0.10486374242083417</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="R14" s="24">
-        <v>0.32525199218956147</v>
-      </c>
-      <c r="S14" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B15" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="15">
-        <v>4.8536203197970815E-3</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="M17" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17">
+        <v>9.3129967618712603E-2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18">
+        <v>1.8191854302516255E-2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18">
+        <v>8.3545599227963188E-2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="17">
-        <v>0.11496552442089168</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="N15" s="17">
-        <v>0.11072416045522991</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B16" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="16">
-        <v>2.4738578932481298E-2</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="M18" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18">
+        <v>9.0370880103560175E-2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19">
+        <v>4.1321901971877829E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19">
+        <v>1.4499645094670378E-2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="18">
-        <v>1.973501635693993E-2</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="N16" s="18">
-        <v>1.9934541574870939E-2</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B17" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0.35565985375654913</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="M19" t="s">
+        <v>93</v>
+      </c>
+      <c r="N19">
+        <v>1.7262951785953353E-2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20">
+        <v>0.10349109933797937</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20">
+        <v>0.14078983347474563</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="17">
-        <v>7.86665054129803E-2</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17" s="17">
-        <v>9.3129967618712603E-2</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B18" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="16">
-        <v>1.8191854302516255E-2</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="14" t="s">
+      <c r="M20" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20">
+        <v>0.13393932092465469</v>
+      </c>
+      <c r="O20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21">
+        <v>0.14141007471312952</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="18">
-        <v>8.3545599227963188E-2</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="N18" s="18">
-        <v>9.0370880103560175E-2</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B19" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="15">
-        <v>4.1321901971877829E-2</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="M21" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21">
+        <v>0.13408115812593691</v>
+      </c>
+      <c r="O21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22">
+        <v>1.9322936668730696E-3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22">
+        <v>2.5851320830878426E-2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="17">
-        <v>1.4499645094670378E-2</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="N19" s="17">
-        <v>1.7262951785953353E-2</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B20" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0.10349109933797937</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="18">
-        <v>0.14078983347474563</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="N20" s="18">
-        <v>0.13393932092465469</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B21" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="M22" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="15">
-        <v>0</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0.14141007471312952</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="N21" s="17">
-        <v>0.13408115812593691</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B22" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="16">
-        <v>1.9322936668730696E-3</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="18">
-        <v>2.5851320830878426E-2</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N22" s="18">
+      <c r="N22">
         <v>2.5058471276257276E-2</v>
       </c>
-      <c r="O22" s="14" t="s">
-        <v>86</v>
+      <c r="O22" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E2B507-DE69-41F2-BFCD-806E9644B64B}">
-  <dimension ref="A1:M34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C740058-6915-4C12-9005-38DE4F56CFCE}">
+  <dimension ref="B9:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="11" t="s">
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G10" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="12" t="s">
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>0.11426940639269406</v>
+      </c>
+      <c r="C11">
+        <v>0.16087081189037786</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="17">
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11">
+        <v>0.12154185877629864</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11">
+        <v>0.17884372713897179</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B12">
         <v>0.11426940639269406</v>
       </c>
-      <c r="C11" s="17">
-        <v>0.16087081189037786</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="C12">
+        <v>5.2547713165767528E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12">
+        <v>8.8527190099622954E-2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12">
+        <v>0.36727282398527206</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>2.0776255707762557E-2</v>
+      </c>
+      <c r="C13">
+        <v>3.5896543437005365E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13">
+        <v>2.2637574024520383E-2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13">
+        <v>0.16609836701710967</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C14">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14">
+        <v>0.13551107552473518</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14">
+        <v>0.22024800426650004</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C15">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15">
+        <v>0.10048263795391252</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15">
+        <v>0.41879867138276894</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="C16">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16">
+        <v>2.5034684908137404E-2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16">
+        <v>0.21176347115901417</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C17">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17">
+        <v>0.11376739849528658</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17">
+        <v>0.11652662920397838</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C18">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18">
+        <v>8.1319196279968115E-2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18">
+        <v>0.26664324648860149</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="C19">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19">
+        <v>2.0819513785419224E-2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19">
+        <v>8.2939888326658107E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="C20">
+        <v>0.15910300077070333</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20">
+        <v>0.15008049673136389</v>
+      </c>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20">
+        <v>0.13042023902363176</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="C21">
+        <v>5.197026576834151E-2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21">
+        <v>0.11194412076470171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21">
+        <v>0.32342907502345386</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="C22">
+        <v>3.5502075926708607E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22">
+        <v>2.8334252656033367E-2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22">
+        <v>0.10802714049505879</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G23" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0.12154185877629864</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="17">
-        <v>0.17884372713897179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="18">
-        <v>0.11426940639269406</v>
-      </c>
-      <c r="C12" s="18">
-        <v>5.2547713165767528E-2</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="H23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23">
+        <v>0.11506316199164349</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>0.11321189286390412</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="I25">
+        <v>2.0950801910466603E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G26" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="18">
-        <v>8.8527190099622954E-2</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" s="18">
-        <v>0.36727282398527206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="17">
-        <v>2.0776255707762557E-2</v>
-      </c>
-      <c r="C13" s="17">
-        <v>3.5896543437005365E-2</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="H26" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="I26">
+        <v>0.11643727462754408</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G27" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="17">
-        <v>2.2637574024520383E-2</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" s="17">
-        <v>0.16609836701710967</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B14" s="18">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0.16263862301005233</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="H27" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="14" t="s">
+      <c r="I27">
+        <v>0.11447308514247369</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G28" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0.13551107552473518</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="M14" s="18">
-        <v>0.22024800426650004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="17">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C15" s="17">
-        <v>5.3125160563193538E-2</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="H28" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="I28">
+        <v>2.119263617281722E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G29" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="17">
-        <v>0.10048263795391252</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="M15" s="17">
-        <v>0.41879867138276894</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="18">
-        <v>2.1004566210045664E-2</v>
-      </c>
-      <c r="C16" s="18">
-        <v>3.6291010947302131E-2</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="H29" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="I29">
+        <v>0.11626660111669057</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G30" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="18">
-        <v>2.5034684908137404E-2</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="M16" s="18">
-        <v>0.21176347115901417</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="17">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C17" s="17">
-        <v>0.16263862301005233</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="H30" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="I30">
+        <v>0.11444709610816986</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G31" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="17">
-        <v>0.11376739849528658</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="M17" s="17">
-        <v>0.11652662920397838</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="18">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C18" s="18">
-        <v>5.3125160563193538E-2</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="H31" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="14" t="s">
+      <c r="I31">
+        <v>2.1146925800818128E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G32" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="18">
-        <v>8.1319196279968115E-2</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="M18" s="18">
-        <v>0.26664324648860149</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="17">
-        <v>2.1004566210045664E-2</v>
-      </c>
-      <c r="C19" s="17">
-        <v>3.6291010947302131E-2</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="H32" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="I32">
+        <v>0.11407471408982019</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G33" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="17">
-        <v>2.0819513785419224E-2</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="M19" s="17">
-        <v>8.2939888326658107E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="18">
-        <v>0.11301369863013698</v>
-      </c>
-      <c r="C20" s="18">
-        <v>0.15910300077070333</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="H33" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="14" t="s">
+      <c r="I33">
+        <v>0.11193624963444851</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G34" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="18">
-        <v>0.15008049673136389</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="18">
-        <v>0.13042023902363176</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="17">
-        <v>0.11301369863013698</v>
-      </c>
-      <c r="C21" s="17">
-        <v>5.197026576834151E-2</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="H34" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0.11194412076470171</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M21" s="17">
-        <v>0.32342907502345386</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="18">
-        <v>2.0547945205479451E-2</v>
-      </c>
-      <c r="C22" s="18">
-        <v>3.5502075926708607E-2</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="18">
-        <v>2.8334252656033367E-2</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="M22" s="18">
-        <v>0.10802714049505879</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G23" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="17">
-        <v>0.11506316199164349</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G24" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" s="18">
-        <v>0.11321189286390412</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G25" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" s="17">
-        <v>2.0950801910466603E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G26" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="18">
-        <v>0.11643727462754408</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G27" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="17">
-        <v>0.11447308514247369</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G28" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="18">
-        <v>2.119263617281722E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G29" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I29" s="17">
-        <v>0.11626660111669057</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G30" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I30" s="18">
-        <v>0.11444709610816986</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G31" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I31" s="17">
-        <v>2.1146925800818128E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G32" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I32" s="18">
-        <v>0.11407471408982019</v>
-      </c>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="G33" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I33" s="17">
-        <v>0.11193624963444851</v>
-      </c>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="G34" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" s="18">
+      <c r="I34">
         <v>2.0799560541203545E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>